--- a/Translations/en-el-FoodNinja-ContentThemeList.xlsx
+++ b/Translations/en-el-FoodNinja-ContentThemeList.xlsx
@@ -561,12 +561,12 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Familiarisation with the food group of fruits and vegetables. Complexity of task escalates with advancing level: at the beginning the focus is on the fruits and the vegetables alone, then playing with their colours is introduced.</t>
+          <t>Search for the fruits and vegetables! Slice them to earn points and learn about their nutritional value and colourful palette, how many you should consume daily, and clever ways to add them in your diet.</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Εξοικείωση με την ομάδα τροφίμων των φρούτων και των λαχανικών. Η πολυπλοκότητα των εργασιών κλιμακώνεται με το επίπεδο προόδου: Στην αρχή η εστίαση είναι στα φρούτα και μόνο τα λαχανικά, στη συνέχεια, παίζοντας με τα χρώματα τους εισάγεται.</t>
+          <t>Αναζητήστε τα φρούτα και τα λαχανικά! Κόψτε τα για να κερδίσετε πόντους και μάθετε για τη διατροφική τους αξία και την πολύχρωμη παλέτα τους, πόσα πρέπει να καταναλώνετε καθημερινά και έξυπνους τρόπους για να τα προσθέσετε στη διατροφή σας.</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Your task is to slice only the fruits you see.</t>
+          <t>Your task is to slice the fruits!</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Η εργασία σας είναι να κόψετε μόνο τα φρούτα που βλέπετε.</t>
+          <t>Το καθήκον σας είναι να κόψετε τα φρούτα!</t>
         </is>
       </c>
     </row>
@@ -701,12 +701,12 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Fruits are among the foods it is recommended you consume on a daily basis. In general, 2-3 fruits per day is your ultimate goal. Selecting a fruit as a snack, at school or in the afternoon, will help you achieve your daily goal. To do so, give fruit a priority: first eat the fruit, then anything else!</t>
+          <t>Fruits are among the foods you should consume on a daily basis. In general, 2-3 fruits per day is your ultimate goal. Selecting a fruit as a snack, at school or in the afternoon, will help you achieve your daily goal. To do so, give fruit a priority: first eat the fruit, then anything else!</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Τα φρούτα είναι μεταξύ των τροφίμων που σας συνιστάται να καταναλώνετε καθημερινά. Γενικά, 2-3 φρούτα την ημέρα είναι ο απώτερος στόχος σας. Επιλέγοντας ένα φρούτο ως σνακ, στο σχολείο ή το απόγευμα, θα σας βοηθήσει να επιτύχετε τον καθημερινό σας στόχο. Για να το κάνετε αυτό, δώστε φρούτα μια προτεραιότητα: πρώτα τρώτε τα φρούτα, τότε οτιδήποτε άλλο!</t>
+          <t>Τα φρούτα είναι από τα τρόφιμα που πρέπει να καταναλώνετε σε καθημερινή βάση. Γενικά, 2-3 φρούτα την ημέρα είναι ο απώτερος στόχος σας. Η επιλογή ενός φρούτου ως σνακ, στο σχολείο ή το απόγευμα, θα σας βοηθήσει να πετύχετε τον καθημερινό σας στόχο. Για να το κάνετε αυτό, δώστε προτεραιότητα στα φρούτα: πρώτα φάτε τα φρούτα και μετά οτιδήποτε άλλο!</t>
         </is>
       </c>
     </row>
@@ -771,12 +771,12 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Your task is to slice only the veggies you see.</t>
+          <t>Your task is to slice the vegetables !</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Η εργασία σας είναι να κόψετε μόνο τα λαχανικά που βλέπετε.</t>
+          <t>Το καθήκον σας είναι να κόψετε τα λαχανικά σε φέτες!</t>
         </is>
       </c>
     </row>
@@ -841,12 +841,12 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Vegetables, like fruits, are also recommended to be consumed on a daily basis. They can be served as a salad or even as a main dish. To meet your everyday goal, accompany your main meals with veggies!</t>
+          <t>Vegetables, like fruits, should be consumed on a daily basis. They can be served as a salad or even as a main dish. To meet your everyday goal, accompany your main meals with vegetables!</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Τα λαχανικά, όπως τα φρούτα, συνιστώνται επίσης να καταναλώνονται καθημερινά. Μπορούν να σερβιριστούν ως σαλάτα ή ακόμα και ως κύριο πιάτο. Για να επιτύχετε τον καθημερινό σας στόχο, συνοδεύστε τα κύρια γεύματά σας με λαχανικά!</t>
+          <t>Τα λαχανικά, όπως και τα φρούτα, πρέπει να καταναλώνονται σε καθημερινή βάση. Μπορούν να σερβιριστούν ως σαλάτα ή ακόμα και ως κύριο πιάτο. Για να πετύχετε τον καθημερινό σας στόχο, συνοδέψτε τα κύρια γεύματά σας με λαχανικά!</t>
         </is>
       </c>
     </row>
@@ -911,12 +911,12 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Your task is to slice only the F&amp;V with red colour.</t>
+          <t>Your task is to slice the fruits anf vegetables with red colour!</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Η εργασία σας είναι να κόψετε μόνο το F &amp; V με κόκκινο χρώμα.</t>
+          <t>Η δουλειά σας είναι να κόψετε τα φρούτα και τα λαχανικά με κόκκινο χρώμα!</t>
         </is>
       </c>
     </row>
@@ -1086,12 +1086,12 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Familiarisation with the food group of dairy products. The complexity of the task increases with each level: first, the focus is on identifying and slicing common dairy products; then, learners move on to slicing the image that shows the recommended daily consumption of dairy products; finally, they identify and slice the image that highlights the key nutrient found in dairies, i.e. calcium.</t>
+          <t>Search for the dairy products! Slice them to earn points and learn about their key nutrients, how many you should consume daily, their serving size, and clever ways to add them in your diet..</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Εξοικείωση με την ομάδα τροφίμων των γαλακτοκομικών προϊόντων. Η πολυπλοκότητα της εργασίας αυξάνεται με κάθε επίπεδο: πρώτον, εστιάζεται στον εντοπισμό και την τεμαχισμό των κοινών γαλακτοκομικών προϊόντων. Στη συνέχεια, οι μαθητές προχωρούν για να τεμαχίσουν την εικόνα που δείχνει τη συνιστώμενη ημερήσια κατανάλωση γαλακτοκομικών προϊόντων. Τέλος, προσδιορίζουν και κόβουν την εικόνα που υπογραμμίζει το βασικό θρεπτικό συστατικό που βρίσκεται στα γαλακτοκομεία, δηλαδή το ασβέστιο.</t>
+          <t>Αναζητήστε τα γαλακτοκομικά προϊόντα! Κόψτε τα για να κερδίσετε πόντους και μάθετε για τα βασικά θρεπτικά συστατικά τους, πόσα πρέπει να καταναλώνετε καθημερινά, το μέγεθος της μερίδας τους και έξυπνους τρόπους για να τα προσθέσετε στη διατροφή σας.</t>
         </is>
       </c>
     </row>
@@ -1156,12 +1156,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Your task is to slice only the dairy products you see.</t>
+          <t>Your task is to slice the dairy products!</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Η εργασία σας είναι να κόψετε μόνο τα γαλακτοκομικά προϊόντα που βλέπετε.</t>
+          <t>Το καθήκον σας είναι να κόψετε σε φέτες τα γαλακτοκομικά προϊόντα!</t>
         </is>
       </c>
     </row>
@@ -1191,12 +1191,12 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>Make dairies a daily habit! Include them early in your day and build healthy habits that last!</t>
+          <t>Make dairy products a daily habit! Include them early in your day and build healthy habits that last!</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Κάντε τα γαλακτοκομεία καθημερινή συνήθεια! Συμπεριλάβετε τους νωρίς την ημέρα σας και δημιουργήστε υγιείς συνήθειες που διαρκούν!</t>
+          <t>Κάντε τα γαλακτοκομικά προϊόντα καθημερινή συνήθεια! Εντάξτε τα νωρίς στην ημέρα σας και χτίστε υγιεινές συνήθειες που διαρκούν!</t>
         </is>
       </c>
     </row>
@@ -1226,12 +1226,12 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Dairy products like milk, yogurt, and cheese are foods recommended for daily consumption because they provide key nutrients for your growth and development.</t>
+          <t>Dairy products like milk, yogurt, and cheese are foods you shoulod consume daily because they provide key nutrients for your growth and development.</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Τα γαλακτοκομικά προϊόντα όπως το γάλα, το γιαούρτι και το τυρί είναι τρόφιμα που συνιστώνται για καθημερινή κατανάλωση επειδή παρέχουν βασικά θρεπτικά συστατικά για την ανάπτυξη και την ανάπτυξή σας.</t>
+          <t>Τα γαλακτοκομικά προϊόντα όπως το γάλα, το γιαούρτι και το τυρί είναι τροφές που πρέπει να καταναλώνετε καθημερινά επειδή παρέχουν βασικά θρεπτικά συστατικά για την ανάπτυξη και την ανάπτυξή σας.</t>
         </is>
       </c>
     </row>
@@ -1296,12 +1296,12 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Your task is to slice only the recommended daily consumption of dairy products you see.</t>
+          <t>Your task is to slice the recommended daily consumption of dairy products!</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Η εργασία σας είναι να κόψετε μόνο τη συνιστώμενη ημερήσια κατανάλωση γαλακτοκομικών προϊόντων που βλέπετε.</t>
+          <t>Ο στόχος σας είναι να κόψετε σε φέτες τη συνιστώμενη ημερήσια κατανάλωση γαλακτοκομικών προϊόντων!</t>
         </is>
       </c>
     </row>
@@ -1331,12 +1331,12 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Go with dairies every day!</t>
+          <t>Go with dairy products every day!</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Πηγαίνετε με γαλακτοκομεία κάθε μέρα!</t>
+          <t>Πηγαίνετε με γαλακτοκομικά προϊόντα κάθε μέρα!</t>
         </is>
       </c>
     </row>
@@ -1366,12 +1366,12 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>To meet the goal of 3-4 servings of dairy products per day, try including a glass of milk with breakfast, yogurt as a snack, or cheese with your lunch or dinner. Make it a habit — pair your meals or snacks with a dairy option to stay strong and healthy!</t>
+          <t>To meet the goal of 3-4 servings of dairy products per day, try including a glass of milk with breakfast, yogurt as a snack, or cheese with your lunch or dinner. Make it a habit — pair your meals or snacks with a dairy product boption to stay strong and healthy!</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Για να επιτευχθεί ο στόχος των 3-4 μερίδων γαλακτοκομικών προϊόντων την ημέρα, προσπαθήστε να συμπεριλάβετε ένα ποτήρι γάλα με πρωινό, γιαούρτι ως σνακ ή τυρί με το μεσημεριανό σας γεύμα ή το δείπνο. Κάντε την συνήθεια - συνδυάστε τα γεύματά σας ή τα σνακ με μια επιλογή γαλακτοκομικών προϊόντων για να παραμείνετε δυνατοί και υγιείς!</t>
+          <t>Για να πετύχετε τον στόχο των 3-4 μερίδων γαλακτοκομικών προϊόντων την ημέρα, δοκιμάστε να συμπεριλάβετε ένα ποτήρι γάλα με πρωινό, γιαούρτι ως σνακ ή τυρί με το μεσημεριανό ή το βραδινό σας γεύμα. Κάντε το συνήθεια — συνδυάστε τα γεύματα ή τα σνακ σας με ένα boption γαλακτοκομικών προϊόντων για να παραμείνετε δυνατοί και υγιείς!</t>
         </is>
       </c>
     </row>
@@ -1436,12 +1436,12 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Your task is to identify what counts as one portion of a dairy product. Select all the items that represent a standard dairy portion.</t>
+          <t xml:space="preserve">Your task is to slice what counts as one portion of a dairy product. </t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Η εργασία σας είναι να προσδιορίσετε τι μετράει ως ένα τμήμα ενός γαλακτοκομικού προϊόντος. Επιλέξτε όλα τα στοιχεία που αντιπροσωπεύουν ένα τυπικό τμήμα γαλακτοκομικών προϊόντων.</t>
+          <t>Το καθήκον σας είναι να κόψετε σε φέτες αυτό που μετράει ως μία μερίδα ενός γαλακτοκομικού προϊόντος.</t>
         </is>
       </c>
     </row>
@@ -1576,12 +1576,12 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Your task is to slice only the key nutrient found in dairy products. Note that: Ca: calcium, Fe: Iron.</t>
+          <t>Your task is to slice the key nutrient found in dairy products! Note that: Ca: calcium, Fe: Iron, vE: vitamin E.</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Το καθήκον σας είναι να κόψετε μόνο το βασικό θρεπτικό συστατικό που βρίσκεται στα γαλακτοκομικά προϊόντα. Σημειώστε ότι: CA: ασβέστιο, Fe: Iron.</t>
+          <t>Ο στόχος σας είναι να κόψετε σε φέτες το βασικό θρεπτικό συστατικό που βρίσκεται στα γαλακτοκομικά προϊόντα! Σημειώστε ότι: Ca: ασβέστιο, Fe: Σίδηρος, VE: βιταμίνη Ε.</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Dairy products are one of the best sources of calcium (Ca), which helps build strong bones and teeth.</t>
+          <t>Dairy products are one of the best sources of calcium , which helps build strong bones and teeth.</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Τα γαλακτοκομικά προϊόντα είναι μία από τις καλύτερες πηγές ασβεστίου (CA), που βοηθούν στην οικοδόμηση ισχυρών οστών και δοντιών.</t>
+          <t>Τα γαλακτοκομικά προϊόντα είναι μια από τις καλύτερες πηγές ασβεστίου, το οποίο βοηθά στη δημιουργία γερών οστών και δοντιών.</t>
         </is>
       </c>
     </row>
